--- a/excel/Lista espécies.xlsx
+++ b/excel/Lista espécies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Documents\Doutorado\TEXTOS\Artigo 1º\Submeter\Nova revista\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27F0DA-FFD9-4F0B-B0A0-6E25B26F392C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42397E-156E-486A-8026-10A074EBCFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="708">
   <si>
     <t>Acianthera langeana</t>
   </si>
@@ -3192,9 +3192,6 @@
     <t>Xyris reitzii</t>
   </si>
   <si>
-    <t>1984/2017</t>
-  </si>
-  <si>
     <t>2012/2013</t>
   </si>
   <si>
@@ -3315,9 +3312,6 @@
     <t>Vulnerável</t>
   </si>
   <si>
-    <t>Rizomatoso</t>
-  </si>
-  <si>
     <t>Talosa</t>
   </si>
   <si>
@@ -3337,6 +3331,12 @@
   </si>
   <si>
     <t>(vazio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plinia silvestris </t>
+  </si>
+  <si>
+    <t>Bambu lenhoso</t>
   </si>
 </sst>
 </file>
@@ -3346,7 +3346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3470,6 +3470,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3561,7 +3568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3682,7 +3689,23 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15499,7 +15522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="G1:H13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -15691,7 +15714,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabela dinâmica2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="D1:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0">
@@ -15880,7 +15903,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="Tabela dinâmica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
@@ -16334,7 +16357,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="Tabela dinâmica4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J1:J283" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -17959,8 +17982,8 @@
   <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17990,7 +18013,7 @@
         <v>321</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>499</v>
@@ -18002,10 +18025,10 @@
         <v>523</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -19941,7 +19964,7 @@
         <v>249</v>
       </c>
       <c r="D64" s="32" t="str">
-        <f t="shared" ref="D64:D125" si="1">IF(C64="EN","Em Perigo",IF(C64="VU","Vulnerável","Criticamente em Perigo"))</f>
+        <f t="shared" ref="D64:D124" si="1">IF(C64="EN","Em Perigo",IF(C64="VU","Vulnerável","Criticamente em Perigo"))</f>
         <v>Em Perigo</v>
       </c>
       <c r="E64" s="30" t="str">
@@ -20464,12 +20487,12 @@
       <c r="B81" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="C81" s="36" t="s">
-        <v>249</v>
+      <c r="C81" s="32" t="s">
+        <v>248</v>
       </c>
       <c r="D81" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E81" s="30" t="str">
         <f>IFERROR(VLOOKUP(B81,Tabela2[],1,0),"Não Encontrado")</f>
@@ -20848,7 +20871,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G93" s="33" t="s">
         <v>546</v>
@@ -21171,80 +21194,80 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B104" s="31" t="s">
-        <v>656</v>
+      <c r="B104" s="34" t="s">
+        <v>215</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D104" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E104" s="30" t="str">
         <f>IFERROR(VLOOKUP(B104,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Manihot procumbens</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="H104" s="33">
-        <v>6</v>
+        <v>621</v>
+      </c>
+      <c r="H104" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I104" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>215</v>
+      <c r="A105" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D105" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E105" s="30" t="str">
         <f>IFERROR(VLOOKUP(B105,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Manihot procumbens</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G105" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="H105" s="33" t="s">
-        <v>531</v>
+        <v>527</v>
+      </c>
+      <c r="H105" s="33">
+        <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="32" t="s">
+      <c r="A106" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B106" s="31" t="s">
-        <v>5</v>
+      <c r="B106" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D106" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E106" s="30" t="str">
         <f>IFERROR(VLOOKUP(B106,Tabela2[],1,0),"Não Encontrado")</f>
@@ -21254,13 +21277,13 @@
         <v>512</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="H106" s="33">
-        <v>3</v>
+        <v>552</v>
+      </c>
+      <c r="H106" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I106" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -21268,7 +21291,7 @@
         <v>260</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C107" s="32" t="s">
         <v>248</v>
@@ -21291,35 +21314,35 @@
         <v>531</v>
       </c>
       <c r="I107" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B108" s="34" t="s">
-        <v>183</v>
+      <c r="B108" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D108" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E108" s="30" t="str">
         <f>IFERROR(VLOOKUP(B108,Tabela2[],1,0),"Não Encontrado")</f>
         <v>Não Encontrado</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="H108" s="33" t="s">
-        <v>531</v>
+        <v>569</v>
+      </c>
+      <c r="H108" s="33">
+        <v>6</v>
       </c>
       <c r="I108" t="s">
         <v>630</v>
@@ -21329,31 +21352,31 @@
       <c r="A109" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B109" s="31" t="s">
-        <v>38</v>
+      <c r="B109" s="34" t="s">
+        <v>195</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D109" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E109" s="30" t="str">
         <f>IFERROR(VLOOKUP(B109,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Gleditsia amorphoides</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="H109" s="33">
-        <v>6</v>
+        <v>552</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I109" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -21361,7 +21384,7 @@
         <v>260</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C110" s="32" t="s">
         <v>248</v>
@@ -21372,16 +21395,16 @@
       </c>
       <c r="E110" s="30" t="str">
         <f>IFERROR(VLOOKUP(B110,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Gleditsia amorphoides</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G110" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="H110" s="33" t="s">
-        <v>531</v>
+        <v>619</v>
+      </c>
+      <c r="H110" s="33">
+        <v>8</v>
       </c>
       <c r="I110" t="s">
         <v>631</v>
@@ -21391,31 +21414,31 @@
       <c r="A111" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B111" s="34" t="s">
-        <v>207</v>
+      <c r="B111" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D111" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E111" s="30" t="str">
         <f>IFERROR(VLOOKUP(B111,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Mimosa bathyrrhena</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="H111" s="33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -21423,7 +21446,7 @@
         <v>260</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C112" s="32" t="s">
         <v>249</v>
@@ -21434,16 +21457,16 @@
       </c>
       <c r="E112" s="30" t="str">
         <f>IFERROR(VLOOKUP(B112,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Mimosa bathyrrhena</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="H112" s="33">
-        <v>5</v>
+        <v>585</v>
+      </c>
+      <c r="H112" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I112" t="s">
         <v>629</v>
@@ -21454,7 +21477,7 @@
         <v>260</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C113" s="32" t="s">
         <v>249</v>
@@ -21465,13 +21488,13 @@
       </c>
       <c r="E113" s="30" t="str">
         <f>IFERROR(VLOOKUP(B113,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Mimosa hatschbachii</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="H113" s="33" t="s">
         <v>531</v>
@@ -21485,7 +21508,7 @@
         <v>260</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C114" s="32" t="s">
         <v>249</v>
@@ -21496,109 +21519,109 @@
       </c>
       <c r="E114" s="30" t="str">
         <f>IFERROR(VLOOKUP(B114,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Mimosa hatschbachii</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G114" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="H114" s="33" t="s">
-        <v>531</v>
+        <v>589</v>
+      </c>
+      <c r="H114" s="33">
+        <v>7</v>
       </c>
       <c r="I114" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B115" s="31" t="s">
-        <v>82</v>
+      <c r="B115" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="D115" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Em Perigo</v>
+        <v>Criticamente em Perigo</v>
       </c>
       <c r="E115" s="30" t="str">
         <f>IFERROR(VLOOKUP(B115,Tabela2[],1,0),"Não Encontrado")</f>
         <v>Não Encontrado</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="H115" s="33">
-        <v>7</v>
+        <v>540</v>
+      </c>
+      <c r="H115" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I115" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="B116" s="34" t="s">
-        <v>154</v>
+      <c r="B116" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="D116" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Criticamente em Perigo</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E116" s="30" t="str">
         <f>IFERROR(VLOOKUP(B116,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Mimosa urticaria</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="H116" s="33" t="s">
-        <v>531</v>
+        <v>590</v>
+      </c>
+      <c r="H116" s="33">
+        <v>8</v>
       </c>
       <c r="I116" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="32" t="s">
+      <c r="A117" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B117" s="31" t="s">
-        <v>83</v>
+      <c r="B117" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="D117" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Em Perigo</v>
+        <v>Criticamente em Perigo</v>
       </c>
       <c r="E117" s="30" t="str">
         <f>IFERROR(VLOOKUP(B117,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Mimosa urticaria</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G117" s="33" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="H117" s="33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I117" t="s">
         <v>629</v>
@@ -21609,14 +21632,14 @@
         <v>260</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="D118" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Criticamente em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E118" s="30" t="str">
         <f>IFERROR(VLOOKUP(B118,Tabela2[],1,0),"Não Encontrado")</f>
@@ -21626,52 +21649,52 @@
         <v>512</v>
       </c>
       <c r="G118" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="H118" s="33">
-        <v>5</v>
+        <v>613</v>
+      </c>
+      <c r="H118" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I118" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B119" s="34" t="s">
-        <v>238</v>
+      <c r="A119" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D119" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E119" s="30" t="str">
         <f>IFERROR(VLOOKUP(B119,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Zygostigma australe</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>613</v>
+        <v>546</v>
       </c>
       <c r="H119" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I119" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C120" s="32" t="s">
         <v>249</v>
@@ -21682,34 +21705,34 @@
       </c>
       <c r="E120" s="30" t="str">
         <f>IFERROR(VLOOKUP(B120,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Zygostigma australe</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>511</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="H120" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I120" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="B121" s="31" t="s">
-        <v>118</v>
+        <v>338</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>202</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D121" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E121" s="30" t="str">
         <f>IFERROR(VLOOKUP(B121,Tabela2[],1,0),"Não Encontrado")</f>
@@ -21719,28 +21742,28 @@
         <v>511</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="H121" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I121" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="B122" s="34" t="s">
-        <v>202</v>
+        <v>304</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D122" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E122" s="30" t="str">
         <f>IFERROR(VLOOKUP(B122,Tabela2[],1,0),"Não Encontrado")</f>
@@ -21750,125 +21773,125 @@
         <v>511</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="H122" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I122" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B123" s="31" t="s">
-        <v>32</v>
+      <c r="B123" s="34" t="s">
+        <v>506</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D123" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E123" s="30" t="str">
         <f>IFERROR(VLOOKUP(B123,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Cyanocephalus apertiflorus</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="H123" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I123" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B124" s="34" t="s">
-        <v>506</v>
+      <c r="A124" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D124" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E124" s="30" t="str">
         <f>IFERROR(VLOOKUP(B124,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Cyanocephalus apertiflorus</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>614</v>
+        <v>532</v>
       </c>
       <c r="H124" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I124" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B125" s="31" t="s">
-        <v>90</v>
+      <c r="B125" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D125" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>Em Perigo</v>
+        <f t="shared" ref="D125:D187" si="2">IF(C125="EN","Em Perigo",IF(C125="VU","Vulnerável","Criticamente em Perigo"))</f>
+        <v>Vulnerável</v>
       </c>
       <c r="E125" s="30" t="str">
         <f>IFERROR(VLOOKUP(B125,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Ocotea catharinensis</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="H125" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I125" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="B126" s="34" t="s">
-        <v>224</v>
+      <c r="B126" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D126" s="32" t="str">
-        <f t="shared" ref="D126:D187" si="2">IF(C126="EN","Em Perigo",IF(C126="VU","Vulnerável","Criticamente em Perigo"))</f>
-        <v>Vulnerável</v>
+        <f t="shared" si="2"/>
+        <v>Em Perigo</v>
       </c>
       <c r="E126" s="30" t="str">
         <f>IFERROR(VLOOKUP(B126,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Ocotea catharinensis</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>512</v>
@@ -21880,7 +21903,7 @@
         <v>531</v>
       </c>
       <c r="I126" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -21888,7 +21911,7 @@
         <v>258</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>249</v>
@@ -21899,7 +21922,7 @@
       </c>
       <c r="E127" s="30" t="str">
         <f>IFERROR(VLOOKUP(B127,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Ocotea odorifera</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>512</v>
@@ -21919,7 +21942,7 @@
         <v>258</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>249</v>
@@ -21930,19 +21953,19 @@
       </c>
       <c r="E128" s="30" t="str">
         <f>IFERROR(VLOOKUP(B128,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Ocotea odorifera</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H128" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I128" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -21950,7 +21973,7 @@
         <v>258</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>249</v>
@@ -21961,27 +21984,27 @@
       </c>
       <c r="E129" s="30" t="str">
         <f>IFERROR(VLOOKUP(B129,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Ocotea porosa</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H129" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I129" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>249</v>
@@ -21992,7 +22015,7 @@
       </c>
       <c r="E130" s="30" t="str">
         <f>IFERROR(VLOOKUP(B130,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Ocotea porosa</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>512</v>
@@ -22004,77 +22027,77 @@
         <v>531</v>
       </c>
       <c r="I130" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>25</v>
+      <c r="A131" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D131" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E131" s="30" t="str">
         <f>IFERROR(VLOOKUP(B131,Tabela2[],1,0),"Não Encontrado")</f>
         <v>Não Encontrado</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="H131" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I131" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B132" s="34" t="s">
-        <v>242</v>
+      <c r="A132" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>125</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D132" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E132" s="30" t="str">
         <f>IFERROR(VLOOKUP(B132,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Spigelia vestita</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>511</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="H132" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I132" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>249</v>
@@ -22085,19 +22108,19 @@
       </c>
       <c r="E133" s="30" t="str">
         <f>IFERROR(VLOOKUP(B133,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Spigelia vestita</v>
+        <v>Cuphea glaziovii</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="H133" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I133" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -22105,7 +22128,7 @@
         <v>276</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>249</v>
@@ -22116,78 +22139,78 @@
       </c>
       <c r="E134" s="30" t="str">
         <f>IFERROR(VLOOKUP(B134,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Cuphea glaziovii</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="H134" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I134" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="B135" s="31" t="s">
-        <v>34</v>
+      <c r="B135" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D135" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E135" s="30" t="str">
         <f>IFERROR(VLOOKUP(B135,Tabela2[],1,0),"Não Encontrado")</f>
         <v>Não Encontrado</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G135" s="33" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="H135" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I135" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="32" t="s">
-        <v>276</v>
+      <c r="A136" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="D136" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Criticamente em Perigo</v>
       </c>
       <c r="E136" s="30" t="str">
         <f>IFERROR(VLOOKUP(B136,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Banisteriopsis pseudojanusia</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="H136" s="33" t="s">
-        <v>531</v>
+        <v>521</v>
+      </c>
+      <c r="H136" s="33">
+        <v>2</v>
       </c>
       <c r="I136" t="s">
         <v>630</v>
@@ -22198,45 +22221,45 @@
         <v>277</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="D137" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Criticamente em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E137" s="30" t="str">
         <f>IFERROR(VLOOKUP(B137,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Banisteriopsis pseudojanusia</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="H137" s="33">
-        <v>2</v>
+        <v>552</v>
+      </c>
+      <c r="H137" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I137" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="B138" s="34" t="s">
-        <v>172</v>
+      <c r="B138" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D138" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E138" s="30" t="str">
         <f>IFERROR(VLOOKUP(B138,Tabela2[],1,0),"Não Encontrado")</f>
@@ -22246,83 +22269,83 @@
         <v>513</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="H138" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I138" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="B139" s="31" t="s">
-        <v>56</v>
+      <c r="B139" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D139" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E139" s="30" t="str">
         <f>IFERROR(VLOOKUP(B139,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Heteropterys dusenii</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="H139" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I139" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="B140" s="34" t="s">
-        <v>201</v>
+      <c r="B140" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D140" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E140" s="30" t="str">
         <f>IFERROR(VLOOKUP(B140,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Heteropterys dusenii</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>514</v>
+        <v>703</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="H140" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I140" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C141" s="32" t="s">
         <v>249</v>
@@ -22333,19 +22356,19 @@
       </c>
       <c r="E141" s="30" t="str">
         <f>IFERROR(VLOOKUP(B141,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Monteiroa smithii</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>705</v>
+        <v>514</v>
       </c>
       <c r="G141" s="33" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="H141" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I141" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -22353,7 +22376,7 @@
         <v>278</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C142" s="32" t="s">
         <v>249</v>
@@ -22364,27 +22387,27 @@
       </c>
       <c r="E142" s="30" t="str">
         <f>IFERROR(VLOOKUP(B142,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Monteiroa smithii</v>
+        <v>Pavonia hatschbachii</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="H142" s="33" t="s">
-        <v>531</v>
+        <v>530</v>
+      </c>
+      <c r="H142" s="33">
+        <v>5</v>
       </c>
       <c r="I142" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C143" s="32" t="s">
         <v>249</v>
@@ -22395,27 +22418,27 @@
       </c>
       <c r="E143" s="30" t="str">
         <f>IFERROR(VLOOKUP(B143,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Pavonia hatschbachii</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="H143" s="33">
-        <v>5</v>
+        <v>535</v>
+      </c>
+      <c r="H143" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I143" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="32" t="s">
-        <v>279</v>
+      <c r="A144" s="44" t="s">
+        <v>307</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C144" s="32" t="s">
         <v>249</v>
@@ -22429,24 +22452,24 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>511</v>
+        <v>699</v>
       </c>
       <c r="G144" s="33" t="s">
-        <v>535</v>
+        <v>582</v>
       </c>
       <c r="H144" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I144" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="44" t="s">
-        <v>307</v>
+      <c r="A145" s="32" t="s">
+        <v>262</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C145" s="32" t="s">
         <v>249</v>
@@ -22457,19 +22480,19 @@
       </c>
       <c r="E145" s="30" t="str">
         <f>IFERROR(VLOOKUP(B145,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Bertolonia paranaensis</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>701</v>
+        <v>511</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="H145" s="33" t="s">
-        <v>531</v>
+        <v>548</v>
+      </c>
+      <c r="H145" s="33">
+        <v>7</v>
       </c>
       <c r="I145" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -22477,7 +22500,7 @@
         <v>262</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>249</v>
@@ -22488,65 +22511,65 @@
       </c>
       <c r="E146" s="30" t="str">
         <f>IFERROR(VLOOKUP(B146,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Bertolonia paranaensis</v>
+        <v>Leandra hatschbachii</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G146" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="H146" s="33">
-        <v>7</v>
+        <v>532</v>
+      </c>
+      <c r="H146" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I146" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="32" t="s">
+      <c r="A147" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B147" s="31" t="s">
-        <v>66</v>
+      <c r="B147" s="34" t="s">
+        <v>160</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="D147" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Criticamente em Perigo</v>
       </c>
       <c r="E147" s="30" t="str">
         <f>IFERROR(VLOOKUP(B147,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Leandra hatschbachii</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G147" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="H147" s="33" t="s">
-        <v>531</v>
+        <v>526</v>
+      </c>
+      <c r="H147" s="33">
+        <v>2</v>
       </c>
       <c r="I147" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B148" s="34" t="s">
-        <v>160</v>
+      <c r="B148" s="31" t="s">
+        <v>336</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="D148" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Criticamente em Perigo</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E148" s="30" t="str">
         <f>IFERROR(VLOOKUP(B148,Tabela2[],1,0),"Não Encontrado")</f>
@@ -22556,44 +22579,44 @@
         <v>513</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="H148" s="33">
-        <v>2</v>
+        <v>598</v>
+      </c>
+      <c r="H148" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I148" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>336</v>
+      <c r="A149" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D149" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E149" s="30" t="str">
         <f>IFERROR(VLOOKUP(B149,Tabela2[],1,0),"Não Encontrado")</f>
         <v>Não Encontrado</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G149" s="33" t="s">
-        <v>598</v>
+        <v>552</v>
       </c>
       <c r="H149" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I149" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -22601,7 +22624,7 @@
         <v>314</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>248</v>
@@ -22628,18 +22651,18 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B151" s="34" t="s">
-        <v>179</v>
+      <c r="A151" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D151" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E151" s="30" t="str">
         <f>IFERROR(VLOOKUP(B151,Tabela2[],1,0),"Não Encontrado")</f>
@@ -22655,32 +22678,32 @@
         <v>531</v>
       </c>
       <c r="I151" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>133</v>
+      <c r="A152" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D152" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E152" s="30" t="str">
         <f>IFERROR(VLOOKUP(B152,Tabela2[],1,0),"Não Encontrado")</f>
         <v>Não Encontrado</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>512</v>
+        <v>704</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="H152" s="33" t="s">
         <v>531</v>
@@ -22690,11 +22713,11 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="32" t="s">
         <v>257</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C153" s="32" t="s">
         <v>248</v>
@@ -22708,10 +22731,10 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>706</v>
+        <v>512</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="H153" s="33" t="s">
         <v>531</v>
@@ -22724,15 +22747,15 @@
       <c r="A154" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B154" s="34" t="s">
-        <v>189</v>
+      <c r="B154" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D154" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E154" s="30" t="str">
         <f>IFERROR(VLOOKUP(B154,Tabela2[],1,0),"Não Encontrado")</f>
@@ -22742,10 +22765,10 @@
         <v>512</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="H154" s="33" t="s">
-        <v>531</v>
+        <v>572</v>
+      </c>
+      <c r="H154" s="33">
+        <v>6</v>
       </c>
       <c r="I154" t="s">
         <v>630</v>
@@ -22756,7 +22779,7 @@
         <v>257</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C155" s="32" t="s">
         <v>249</v>
@@ -22767,16 +22790,16 @@
       </c>
       <c r="E155" s="30" t="str">
         <f>IFERROR(VLOOKUP(B155,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Eugenia joenssonii</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="H155" s="33">
-        <v>6</v>
+        <v>573</v>
+      </c>
+      <c r="H155" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I155" t="s">
         <v>630</v>
@@ -22787,7 +22810,7 @@
         <v>257</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C156" s="32" t="s">
         <v>249</v>
@@ -22798,13 +22821,13 @@
       </c>
       <c r="E156" s="30" t="str">
         <f>IFERROR(VLOOKUP(B156,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Eugenia joenssonii</v>
+        <v>Eugenia macrobracteolata</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G156" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H156" s="33" t="s">
         <v>531</v>
@@ -22817,25 +22840,25 @@
       <c r="A157" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B157" s="31" t="s">
-        <v>47</v>
+      <c r="B157" s="34" t="s">
+        <v>190</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D157" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E157" s="30" t="str">
         <f>IFERROR(VLOOKUP(B157,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Eugenia macrobracteolata</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="H157" s="33" t="s">
         <v>531</v>
@@ -22848,15 +22871,15 @@
       <c r="A158" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B158" s="34" t="s">
-        <v>190</v>
+      <c r="B158" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D158" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E158" s="30" t="str">
         <f>IFERROR(VLOOKUP(B158,Tabela2[],1,0),"Não Encontrado")</f>
@@ -22866,13 +22889,13 @@
         <v>512</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="H158" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I158" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -22880,7 +22903,7 @@
         <v>257</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C159" s="32" t="s">
         <v>249</v>
@@ -22897,13 +22920,13 @@
         <v>512</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="H159" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I159" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -22911,7 +22934,7 @@
         <v>257</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>49</v>
+        <v>634</v>
       </c>
       <c r="C160" s="32" t="s">
         <v>249</v>
@@ -22922,13 +22945,13 @@
       </c>
       <c r="E160" s="30" t="str">
         <f>IFERROR(VLOOKUP(B160,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Eugenia pachyclada</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>536</v>
+        <v>635</v>
       </c>
       <c r="H160" s="33" t="s">
         <v>531</v>
@@ -22942,7 +22965,7 @@
         <v>257</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>634</v>
+        <v>50</v>
       </c>
       <c r="C161" s="32" t="s">
         <v>249</v>
@@ -22953,13 +22976,13 @@
       </c>
       <c r="E161" s="30" t="str">
         <f>IFERROR(VLOOKUP(B161,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Eugenia pachyclada</v>
+        <v>Eugenia pruinosa</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>635</v>
+        <v>546</v>
       </c>
       <c r="H161" s="33" t="s">
         <v>531</v>
@@ -22973,7 +22996,7 @@
         <v>257</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C162" s="32" t="s">
         <v>249</v>
@@ -22984,13 +23007,13 @@
       </c>
       <c r="E162" s="30" t="str">
         <f>IFERROR(VLOOKUP(B162,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Eugenia pruinosa</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="H162" s="33" t="s">
         <v>531</v>
@@ -23003,25 +23026,25 @@
       <c r="A163" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B163" s="31" t="s">
-        <v>51</v>
+      <c r="B163" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D163" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E163" s="30" t="str">
         <f>IFERROR(VLOOKUP(B163,Tabela2[],1,0),"Não Encontrado")</f>
         <v>Não Encontrado</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>512</v>
+        <v>704</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="H163" s="33" t="s">
         <v>531</v>
@@ -23035,7 +23058,7 @@
         <v>257</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C164" s="32" t="s">
         <v>248</v>
@@ -23049,7 +23072,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>706</v>
+        <v>512</v>
       </c>
       <c r="G164" s="33" t="s">
         <v>546</v>
@@ -23065,15 +23088,15 @@
       <c r="A165" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B165" s="34" t="s">
-        <v>192</v>
+      <c r="B165" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D165" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E165" s="30" t="str">
         <f>IFERROR(VLOOKUP(B165,Tabela2[],1,0),"Não Encontrado")</f>
@@ -23093,28 +23116,28 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="32" t="s">
+      <c r="A166" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B166" s="31" t="s">
-        <v>85</v>
+      <c r="B166" s="34" t="s">
+        <v>221</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D166" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E166" s="30" t="str">
         <f>IFERROR(VLOOKUP(B166,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Myrceugenia franciscensis</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H166" s="33" t="s">
         <v>531</v>
@@ -23123,29 +23146,29 @@
         <v>630</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="12" t="s">
+    <row r="167" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B167" s="34" t="s">
-        <v>221</v>
+      <c r="B167" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D167" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E167" s="30" t="str">
         <f>IFERROR(VLOOKUP(B167,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Myrceugenia franciscensis</v>
+        <v>Myrceugenia gertii</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="H167" s="33" t="s">
         <v>531</v>
@@ -23154,12 +23177,12 @@
         <v>630</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
         <v>257</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C168" s="32" t="s">
         <v>249</v>
@@ -23170,34 +23193,34 @@
       </c>
       <c r="E168" s="30" t="str">
         <f>IFERROR(VLOOKUP(B168,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Myrceugenia gertii</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="H168" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I168" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="32" t="s">
+      <c r="A169" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B169" s="31" t="s">
-        <v>87</v>
+      <c r="B169" s="34" t="s">
+        <v>222</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D169" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E169" s="30" t="str">
         <f>IFERROR(VLOOKUP(B169,Tabela2[],1,0),"Não Encontrado")</f>
@@ -23207,28 +23230,28 @@
         <v>512</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="H169" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I169" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B170" s="34" t="s">
-        <v>222</v>
+      <c r="B170" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D170" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E170" s="30" t="str">
         <f>IFERROR(VLOOKUP(B170,Tabela2[],1,0),"Não Encontrado")</f>
@@ -23238,7 +23261,7 @@
         <v>512</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="H170" s="33" t="s">
         <v>531</v>
@@ -23248,28 +23271,28 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B171" s="31" t="s">
-        <v>88</v>
+      <c r="B171" s="34" t="s">
+        <v>508</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D171" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E171" s="30" t="str">
         <f>IFERROR(VLOOKUP(B171,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Myrcia pileata</v>
       </c>
       <c r="F171" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="H171" s="33" t="s">
         <v>531</v>
@@ -23279,28 +23302,28 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B172" s="34" t="s">
-        <v>508</v>
+      <c r="B172" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D172" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E172" s="30" t="str">
         <f>IFERROR(VLOOKUP(B172,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Myrcia pileata</v>
+        <v>Myrcia rupicola</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="H172" s="33" t="s">
         <v>531</v>
@@ -23310,49 +23333,49 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="32" t="s">
+      <c r="A173" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B173" s="31" t="s">
-        <v>89</v>
+      <c r="B173" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="D173" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Criticamente em Perigo</v>
       </c>
       <c r="E173" s="30" t="str">
         <f>IFERROR(VLOOKUP(B173,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Myrcia rupicola</v>
+        <v>Não Encontrado</v>
       </c>
       <c r="F173" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G173" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="H173" s="33" t="s">
-        <v>531</v>
+        <v>524</v>
+      </c>
+      <c r="H173" s="33">
+        <v>3</v>
       </c>
       <c r="I173" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B174" s="34" t="s">
-        <v>156</v>
+      <c r="B174" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="D174" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Criticamente em Perigo</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E174" s="30" t="str">
         <f>IFERROR(VLOOKUP(B174,Tabela2[],1,0),"Não Encontrado")</f>
@@ -23362,10 +23385,10 @@
         <v>512</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="H174" s="33">
-        <v>3</v>
+        <v>546</v>
+      </c>
+      <c r="H174" s="33" t="s">
+        <v>531</v>
       </c>
       <c r="I174" t="s">
         <v>630</v>
@@ -23376,7 +23399,7 @@
         <v>257</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C175" s="32" t="s">
         <v>249</v>
@@ -23393,7 +23416,7 @@
         <v>512</v>
       </c>
       <c r="G175" s="33" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="H175" s="33" t="s">
         <v>531</v>
@@ -23403,18 +23426,18 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="32" t="s">
+      <c r="A176" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B176" s="31" t="s">
-        <v>92</v>
+      <c r="B176" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D176" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Em Perigo</v>
+        <v>Vulnerável</v>
       </c>
       <c r="E176" s="30" t="str">
         <f>IFERROR(VLOOKUP(B176,Tabela2[],1,0),"Não Encontrado")</f>
@@ -23424,7 +23447,7 @@
         <v>512</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
       <c r="H176" s="33" t="s">
         <v>531</v>
@@ -23438,7 +23461,7 @@
         <v>257</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C177" s="32" t="s">
         <v>248</v>
@@ -23455,7 +23478,7 @@
         <v>512</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="H177" s="33" t="s">
         <v>531</v>
@@ -23465,65 +23488,65 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B178" s="34" t="s">
-        <v>229</v>
+      <c r="B178" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D178" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Vulnerável</v>
+        <v>Em Perigo</v>
       </c>
       <c r="E178" s="30" t="str">
         <f>IFERROR(VLOOKUP(B178,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Não Encontrado</v>
+        <v>Plinia hatschbachii</v>
       </c>
       <c r="F178" s="12" t="s">
         <v>512</v>
       </c>
       <c r="G178" s="33" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="H178" s="33" t="s">
         <v>531</v>
       </c>
       <c r="I178" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B179" s="52" t="s">
+        <v>706</v>
+      </c>
+      <c r="C179" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D179" s="47" t="str">
+        <f>IF(C179="EN","Em Perigo",IF(C179="VU","Vulnerável","Criticamente em Perigo"))</f>
+        <v>Em Perigo</v>
+      </c>
+      <c r="E179" s="48" t="str">
+        <f>IFERROR(VLOOKUP(B179,Tabela2[],1,0),"Não Encontrado")</f>
+        <v>Não Encontrado</v>
+      </c>
+      <c r="F179" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="G179" s="50" t="s">
+        <v>536</v>
+      </c>
+      <c r="H179" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="I179" s="51" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B179" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C179" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="D179" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>Em Perigo</v>
-      </c>
-      <c r="E179" s="30" t="str">
-        <f>IFERROR(VLOOKUP(B179,Tabela2[],1,0),"Não Encontrado")</f>
-        <v>Plinia hatschbachii</v>
-      </c>
-      <c r="F179" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="G179" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="H179" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="I179" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -24909,7 +24932,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>511</v>
+        <v>707</v>
       </c>
       <c r="G224" s="33" t="s">
         <v>553</v>
@@ -24971,7 +24994,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="G226" s="33" t="s">
         <v>533</v>
@@ -25374,7 +25397,7 @@
         <v>Roupala asplenioides</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G239" s="33" t="s">
         <v>542</v>
@@ -25622,7 +25645,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G247" s="33" t="s">
         <v>536</v>
@@ -25715,7 +25738,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G250" s="33" t="s">
         <v>602</v>
@@ -26087,7 +26110,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G262" s="33" t="s">
         <v>604</v>
@@ -26118,7 +26141,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G263" s="33" t="s">
         <v>605</v>
@@ -26211,7 +26234,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G266" s="33" t="s">
         <v>546</v>
@@ -26242,7 +26265,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G267" s="33" t="s">
         <v>551</v>
@@ -26273,7 +26296,7 @@
         <v>Não Encontrado</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G268" s="33" t="s">
         <v>548</v>
@@ -26586,7 +26609,7 @@
         <v>511</v>
       </c>
       <c r="G278" s="33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H278" s="33" t="s">
         <v>531</v>
@@ -26742,7 +26765,7 @@
         <v>502</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -26907,7 +26930,7 @@
         <v>507</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -28969,61 +28992,61 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D1" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D2" s="25" t="s">
-        <v>698</v>
-      </c>
-      <c r="E2" s="46">
+        <v>697</v>
+      </c>
+      <c r="E2">
         <v>25</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2">
         <v>39</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>165</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="E3" s="46">
+        <v>665</v>
+      </c>
+      <c r="E3">
         <v>165</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3">
         <v>31</v>
       </c>
       <c r="J3" s="25" t="s">
@@ -29034,53 +29057,52 @@
       <c r="A4" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4">
         <v>6</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="E4" s="46">
+        <v>698</v>
+      </c>
+      <c r="E4">
         <v>90</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4">
         <v>29</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5">
         <v>6</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="E5" s="46"/>
+        <v>705</v>
+      </c>
       <c r="G5" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5">
         <v>14</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -29090,26 +29112,26 @@
       <c r="A6" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6">
         <v>7</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>662</v>
-      </c>
-      <c r="E6" s="46">
+        <v>661</v>
+      </c>
+      <c r="E6">
         <v>280</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6">
         <v>11</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -29119,20 +29141,20 @@
       <c r="A7" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7">
         <v>7</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7">
         <v>7</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -29142,20 +29164,20 @@
       <c r="A8" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8">
         <v>7</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>166</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -29165,20 +29187,20 @@
       <c r="A9" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9">
         <v>7</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9">
         <v>7</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -29188,20 +29210,20 @@
       <c r="A10" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10">
         <v>11</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10">
         <v>7</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -29211,20 +29233,20 @@
       <c r="A11" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11">
         <v>14</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11">
         <v>6</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>510</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -29234,20 +29256,20 @@
       <c r="A12" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12">
         <v>29</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12">
         <v>6</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -29257,20 +29279,20 @@
       <c r="A13" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13">
         <v>31</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>662</v>
-      </c>
-      <c r="H13" s="46">
+        <v>661</v>
+      </c>
+      <c r="H13">
         <v>164</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -29280,14 +29302,14 @@
       <c r="A14" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14">
         <v>39</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -29295,16 +29317,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>662</v>
-      </c>
-      <c r="B15" s="46">
+        <v>661</v>
+      </c>
+      <c r="B15">
         <v>164</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>142</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -29315,7 +29337,7 @@
         <v>504</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -29326,7 +29348,7 @@
         <v>9</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -29337,7 +29359,7 @@
         <v>167</v>
       </c>
       <c r="L18" s="25" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -29348,7 +29370,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M19">
         <v>2</v>
@@ -29359,7 +29381,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -29370,7 +29392,7 @@
         <v>168</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -29381,7 +29403,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M22">
         <v>5</v>
@@ -29392,7 +29414,7 @@
         <v>143</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -29403,7 +29425,7 @@
         <v>13</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M24">
         <v>4</v>
@@ -29414,7 +29436,7 @@
         <v>169</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M25">
         <v>4</v>
@@ -29425,7 +29447,7 @@
         <v>323</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M26">
         <v>3</v>
@@ -29436,7 +29458,7 @@
         <v>144</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M27">
         <v>3</v>
@@ -29447,7 +29469,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M28">
         <v>2</v>
@@ -29458,7 +29480,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M29">
         <v>2</v>
@@ -29469,7 +29491,7 @@
         <v>16</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -29480,7 +29502,7 @@
         <v>17</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M31">
         <v>2</v>
@@ -29491,7 +29513,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M32">
         <v>46</v>
@@ -30744,12 +30766,12 @@
     </row>
     <row r="282" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J282" s="25" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="283" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J283" s="25" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -30775,7 +30797,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
